--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/2023.12.06 - Very Simple Times Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\winter\VedaonlineStudens-main\VedaonlineStudens-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{211A4542-72C8-49B5-A803-BC7CE3750A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974363EB-5C15-4195-B1A5-04C140721549}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC65557-415C-4F04-886F-E64C270276B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -821,7 +821,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1202,6 +1202,21 @@
   </si>
   <si>
     <t>PLN / GJ Activity</t>
+  </si>
+  <si>
+    <t>MIN_EX_WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Mine</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
   </si>
 </sst>
 </file>
@@ -2437,7 +2452,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2693,6 +2708,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -2969,7 +2987,6 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
@@ -2977,6 +2994,7 @@
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3533,10 +3551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:K20"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3679,130 +3697,153 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="104"/>
-      <c r="B8" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="111" t="s">
+      <c r="B8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="106"/>
       <c r="K8" s="117"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="104"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="106"/>
       <c r="K9" s="117"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="104"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="106"/>
       <c r="K10" s="117"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="104"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="106"/>
       <c r="K11" s="117"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="104"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="106"/>
       <c r="K12" s="117"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="116" t="s">
+    <row r="13" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="117"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B16" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="116"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="96" t="s">
+      <c r="C16" s="116"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B17" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C17" s="96" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="97" t="s">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C18" s="97" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="98" t="s">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B19" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C19" s="98" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="97" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C20" s="97" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B20" s="99" t="s">
+    <row r="21" spans="2:3" ht="13.5" thickBot="1">
+      <c r="B21" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C21" s="99" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="K3:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="K3:K13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3816,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3960,13 +4001,25 @@
       <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="35"/>
+      <c r="B9" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="D9" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>104</v>
+      </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
     </row>
@@ -4100,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4299,10 +4352,21 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="20" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>MIN_EX_WIND_ON</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f>SEC_Processes!E9</f>
+        <v>Wind Mine</v>
+      </c>
+      <c r="D9" s="21" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E9" s="120">
+        <v>1E-3</v>
+      </c>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
@@ -4498,7 +4562,7 @@
         <v>BROWN_COAL</v>
       </c>
       <c r="E8" s="85" t="str">
-        <f>SEC_Comm!C8</f>
+        <f>SEC_Comm!C9</f>
         <v>ELEC_HV</v>
       </c>
       <c r="F8" s="86">
@@ -4723,7 +4787,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="62" t="str">
-        <f>SEC_Comm!C8</f>
+        <f>SEC_Comm!C9</f>
         <v>ELEC_HV</v>
       </c>
       <c r="C18" s="85">
@@ -4868,6 +4932,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5011,15 +5084,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
@@ -5037,13 +5101,27 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\winter\VedaonlineStudens-main\VedaonlineStudens-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC65557-415C-4F04-886F-E64C270276B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CB2B4F-5754-45D9-8FAC-0C24E5772E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -821,7 +821,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="136">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1217,6 +1217,18 @@
   </si>
   <si>
     <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND_TURBINE</t>
+  </si>
+  <si>
+    <t>Wind Turbine Onshore</t>
+  </si>
+  <si>
+    <t>Maximum output</t>
+  </si>
+  <si>
+    <t>Limited output</t>
   </si>
 </sst>
 </file>
@@ -2452,7 +2464,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2711,6 +2723,9 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3855,10 +3870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3978,165 +3993,191 @@
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E9" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F9" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G9" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H9" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="35" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E10" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F10" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G10" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H10" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>60</v>
-      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="E15" s="54"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="54" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="54" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="54" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C25" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4153,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4333,11 +4374,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="15" t="str">
-        <f>SEC_Processes!D8</f>
+        <f>SEC_Processes!D9</f>
         <v>MIN_EX_BROWN_COAL</v>
       </c>
       <c r="C8" s="15" t="str">
-        <f>SEC_Processes!E8</f>
+        <f>SEC_Processes!E9</f>
         <v>Brown Coal Mine</v>
       </c>
       <c r="D8" s="18" t="str">
@@ -4353,11 +4394,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="20" t="str">
-        <f>SEC_Processes!D9</f>
+        <f>SEC_Processes!D10</f>
         <v>MIN_EX_WIND_ON</v>
       </c>
       <c r="C9" s="20" t="str">
-        <f>SEC_Processes!E9</f>
+        <f>SEC_Processes!E10</f>
         <v>Wind Mine</v>
       </c>
       <c r="D9" s="21" t="str">
@@ -4409,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4474,10 +4515,10 @@
       <c r="F5" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="121" t="s">
         <v>84</v>
       </c>
       <c r="I5" s="83" t="s">
@@ -4585,16 +4626,62 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
+      <c r="B9" s="88" t="str">
+        <f>SEC_Processes!D8</f>
+        <v>ELE_EX_WIND_TURBINE</v>
+      </c>
+      <c r="C9" s="88" t="str">
+        <f>SEC_Processes!E8</f>
+        <v>Wind Turbine Onshore</v>
+      </c>
+      <c r="D9" s="89" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E9" s="89" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F9" s="90">
+        <v>1.345</v>
+      </c>
+      <c r="G9" s="90">
+        <v>1</v>
+      </c>
+      <c r="H9" s="91">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="91">
+        <v>0.33</v>
+      </c>
+      <c r="J9" s="92">
+        <v>1</v>
+      </c>
       <c r="K9" s="92"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="E12" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12">
+        <f>F9*H9</f>
+        <v>42.41592</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="E13" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13">
+        <f>G12*I9</f>
+        <v>13.997253600000001</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="113"/>
@@ -4613,8 +4700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\winter\VedaonlineStudens-main\VedaonlineStudens-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CB2B4F-5754-45D9-8FAC-0C24E5772E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5109B96-3128-440F-A3C2-26816914C71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -821,7 +821,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="135">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1225,10 +1225,7 @@
     <t>Wind Turbine Onshore</t>
   </si>
   <si>
-    <t>Maximum output</t>
-  </si>
-  <si>
-    <t>Limited output</t>
+    <t>WEEKLY</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1625,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1820,6 +1817,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2464,7 +2467,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2709,6 +2712,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2721,12 +2731,7 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="1" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3569,7 +3574,7 @@
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+      <selection activeCell="G9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3610,7 +3615,7 @@
       <c r="H3" s="102"/>
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
-      <c r="K3" s="117" t="s">
+      <c r="K3" s="120" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3627,7 +3632,7 @@
       <c r="H4" s="105"/>
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
-      <c r="K4" s="117"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="104"/>
@@ -3656,7 +3661,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="106"/>
-      <c r="K5" s="117"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="104"/>
@@ -3685,7 +3690,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="106"/>
-      <c r="K6" s="117"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="104"/>
@@ -3708,7 +3713,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="106"/>
-      <c r="K7" s="117"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="104"/>
@@ -3731,7 +3736,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="106"/>
-      <c r="K8" s="117"/>
+      <c r="K8" s="120"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="104"/>
@@ -3754,7 +3759,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="106"/>
-      <c r="K9" s="117"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="104"/>
@@ -3767,7 +3772,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="106"/>
-      <c r="K10" s="117"/>
+      <c r="K10" s="120"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="104"/>
@@ -3780,7 +3785,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
       <c r="J11" s="106"/>
-      <c r="K11" s="117"/>
+      <c r="K11" s="120"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="104"/>
@@ -3793,7 +3798,7 @@
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="106"/>
-      <c r="K12" s="117"/>
+      <c r="K12" s="120"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" thickBot="1">
       <c r="A13" s="107"/>
@@ -3806,14 +3811,14 @@
       <c r="H13" s="108"/>
       <c r="I13" s="108"/>
       <c r="J13" s="109"/>
-      <c r="K13" s="117"/>
+      <c r="K13" s="120"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="116"/>
+      <c r="C16" s="119"/>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="96" t="s">
@@ -3872,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3986,8 +3991,8 @@
       <c r="G7" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>105</v>
+      <c r="H7" s="123" t="s">
+        <v>134</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
@@ -4194,8 +4199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4405,7 +4410,7 @@
         <f>SEC_Comm!C8</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="116">
         <v>1E-3</v>
       </c>
       <c r="F9" s="22"/>
@@ -4448,10 +4453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4515,10 +4520,10 @@
       <c r="F5" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="117" t="s">
         <v>84</v>
       </c>
       <c r="I5" s="83" t="s">
@@ -4660,34 +4665,23 @@
       <c r="K9" s="92"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="E12" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12">
-        <f>F9*H9</f>
-        <v>42.41592</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>103</v>
-      </c>
+      <c r="E12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="E13" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13">
-        <f>G12*I9</f>
-        <v>13.997253600000001</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>103</v>
-      </c>
+      <c r="E13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="113"/>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="113"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="118"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="F16" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4866,11 +4860,11 @@
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="62" t="str">
@@ -4963,11 +4957,11 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="62"/>
@@ -5013,18 +5007,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5172,6 +5166,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5183,14 +5185,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\winter\VedaonlineStudens-main\VedaonlineStudens-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5109B96-3128-440F-A3C2-26816914C71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92367969-3D7D-4A3C-8B80-1EA1C6A9268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -821,7 +821,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1226,6 +1226,39 @@
   </si>
   <si>
     <t>WEEKLY</t>
+  </si>
+  <si>
+    <t>~FI_T:</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>1S1W1D</t>
+  </si>
+  <si>
+    <t>1S1W2D</t>
+  </si>
+  <si>
+    <t>1S2W1D</t>
+  </si>
+  <si>
+    <t>1S2W2D</t>
+  </si>
+  <si>
+    <t>2S1W1D</t>
+  </si>
+  <si>
+    <t>2S1W2D</t>
+  </si>
+  <si>
+    <t>2S2W1D</t>
+  </si>
+  <si>
+    <t>2S2W2D</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2119,6 +2152,15 @@
       </top>
       <bottom style="medium">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2467,7 +2509,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2732,6 +2774,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="10" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3877,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4692,10 +4758,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4882,6 +4948,131 @@
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="26.25" thickBot="1">
+      <c r="B24" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="127" t="str">
+        <f>B$18</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="136">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="129" t="str">
+        <f t="shared" ref="B26:B32" si="0">B$18</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="137">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="131" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C27" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="138">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="129" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C28" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="137">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="131" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C29" s="132" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="138">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="129" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C30" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="137">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="131" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C31" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="138">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="13.5" thickBot="1">
+      <c r="B32" s="134" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C32" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="139">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="124">
+        <f>SUM(D25:D32)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\winter\VedaonlineStudens-main\VedaonlineStudens-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92367969-3D7D-4A3C-8B80-1EA1C6A9268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4BE917-54CB-4F4B-B3F1-537BC096E7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,7 +821,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="135">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1226,39 +1226,6 @@
   </si>
   <si>
     <t>WEEKLY</t>
-  </si>
-  <si>
-    <t>~FI_T:</t>
-  </si>
-  <si>
-    <t>COM_FR</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>1S1W1D</t>
-  </si>
-  <si>
-    <t>1S1W2D</t>
-  </si>
-  <si>
-    <t>1S2W1D</t>
-  </si>
-  <si>
-    <t>1S2W2D</t>
-  </si>
-  <si>
-    <t>2S1W1D</t>
-  </si>
-  <si>
-    <t>2S1W2D</t>
-  </si>
-  <si>
-    <t>2S2W1D</t>
-  </si>
-  <si>
-    <t>2S2W2D</t>
   </si>
 </sst>
 </file>
@@ -2761,43 +2728,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="10" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="274" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3681,7 +3648,7 @@
       <c r="H3" s="102"/>
       <c r="I3" s="102"/>
       <c r="J3" s="103"/>
-      <c r="K3" s="120" t="s">
+      <c r="K3" s="137" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3698,7 +3665,7 @@
       <c r="H4" s="105"/>
       <c r="I4" s="105"/>
       <c r="J4" s="106"/>
-      <c r="K4" s="120"/>
+      <c r="K4" s="137"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="104"/>
@@ -3727,7 +3694,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="106"/>
-      <c r="K5" s="120"/>
+      <c r="K5" s="137"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="104"/>
@@ -3756,7 +3723,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="106"/>
-      <c r="K6" s="120"/>
+      <c r="K6" s="137"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="104"/>
@@ -3779,7 +3746,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="106"/>
-      <c r="K7" s="120"/>
+      <c r="K7" s="137"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="104"/>
@@ -3802,7 +3769,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="106"/>
-      <c r="K8" s="120"/>
+      <c r="K8" s="137"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="104"/>
@@ -3825,7 +3792,7 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="106"/>
-      <c r="K9" s="120"/>
+      <c r="K9" s="137"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="104"/>
@@ -3838,7 +3805,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="106"/>
-      <c r="K10" s="120"/>
+      <c r="K10" s="137"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="104"/>
@@ -3851,7 +3818,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
       <c r="J11" s="106"/>
-      <c r="K11" s="120"/>
+      <c r="K11" s="137"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="104"/>
@@ -3864,7 +3831,7 @@
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="106"/>
-      <c r="K12" s="120"/>
+      <c r="K12" s="137"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" thickBot="1">
       <c r="A13" s="107"/>
@@ -3877,14 +3844,14 @@
       <c r="H13" s="108"/>
       <c r="I13" s="108"/>
       <c r="J13" s="109"/>
-      <c r="K13" s="120"/>
+      <c r="K13" s="137"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="136"/>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="96" t="s">
@@ -4057,7 +4024,7 @@
       <c r="G7" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H7" s="119" t="s">
         <v>134</v>
       </c>
       <c r="I7" s="38"/>
@@ -4760,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4926,11 +4893,11 @@
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="62" t="str">
@@ -4950,129 +4917,60 @@
       <c r="E19" s="90"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="60" t="s">
-        <v>135</v>
-      </c>
+      <c r="B22" s="60"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="26.25" thickBot="1">
-      <c r="B24" s="125" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+    </row>
+    <row r="24" spans="2:5" ht="13.5" thickBot="1">
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="127" t="str">
-        <f>B$18</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C25" s="128" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="136">
-        <v>0.15</v>
-      </c>
+      <c r="B25" s="123"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="132"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="129" t="str">
-        <f t="shared" ref="B26:B32" si="0">B$18</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C26" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="137">
-        <v>0.1</v>
-      </c>
+      <c r="B26" s="125"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="133"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="131" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C27" s="132" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="138">
-        <v>0.15</v>
-      </c>
+      <c r="B27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="134"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C28" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="137">
-        <v>0.1</v>
-      </c>
+      <c r="B28" s="125"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="133"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="131" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C29" s="132" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="138">
-        <v>0.15</v>
-      </c>
+      <c r="B29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="134"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="129" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C30" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="137">
-        <v>0.1</v>
-      </c>
+      <c r="B30" s="125"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="133"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="131" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C31" s="132" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="138">
-        <v>0.15</v>
-      </c>
+      <c r="B31" s="127"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="134"/>
     </row>
     <row r="32" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B32" s="134" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C32" s="135" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="139">
-        <v>0.1</v>
-      </c>
+      <c r="B32" s="130"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="135"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="124">
-        <f>SUM(D25:D32)</f>
-        <v>1</v>
-      </c>
+      <c r="D34" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5148,11 +5046,11 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="62"/>
@@ -5207,12 +5105,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5356,6 +5248,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
@@ -5365,22 +5263,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5396,4 +5278,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2024-2025\winter\VedaonlineStudens-main\VedaonlineStudens-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4BE917-54CB-4F4B-B3F1-537BC096E7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6479E41-B2F7-453A-A1FC-4CBBAFFE4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4488,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4727,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4889,7 +4889,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="26.25" thickBot="1">
+    <row r="17" spans="2:7" ht="26.25" thickBot="1">
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
@@ -4899,7 +4899,7 @@
       <c r="D17" s="138"/>
       <c r="E17" s="138"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:7">
       <c r="B18" s="62" t="str">
         <f>SEC_Comm!C9</f>
         <v>ELEC_HV</v>
@@ -4907,64 +4907,72 @@
       <c r="C18" s="85">
         <v>200</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="2:5" ht="13.5" thickBot="1">
+      <c r="D18" s="85">
+        <f>C18*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E18" s="85">
+        <f>D18*1.1</f>
+        <v>242.00000000000006</v>
+      </c>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+    </row>
+    <row r="19" spans="2:7" ht="13.5" thickBot="1">
       <c r="B19" s="88"/>
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
       <c r="E19" s="90"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:7">
       <c r="B22" s="60"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:7">
       <c r="B23" s="81"/>
       <c r="C23" s="94"/>
       <c r="D23" s="95"/>
     </row>
-    <row r="24" spans="2:5" ht="13.5" thickBot="1">
+    <row r="24" spans="2:7" ht="13.5" thickBot="1">
       <c r="B24" s="121"/>
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:7">
       <c r="B25" s="123"/>
       <c r="C25" s="124"/>
       <c r="D25" s="132"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:7">
       <c r="B26" s="125"/>
       <c r="C26" s="126"/>
       <c r="D26" s="133"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:7">
       <c r="B27" s="127"/>
       <c r="C27" s="128"/>
       <c r="D27" s="134"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:7">
       <c r="B28" s="125"/>
       <c r="C28" s="129"/>
       <c r="D28" s="133"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:7">
       <c r="B29" s="127"/>
       <c r="C29" s="128"/>
       <c r="D29" s="134"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:7">
       <c r="B30" s="125"/>
       <c r="C30" s="129"/>
       <c r="D30" s="133"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:7">
       <c r="B31" s="127"/>
       <c r="C31" s="128"/>
       <c r="D31" s="134"/>
     </row>
-    <row r="32" spans="2:5" ht="13.5" thickBot="1">
+    <row r="32" spans="2:7" ht="13.5" thickBot="1">
       <c r="B32" s="130"/>
       <c r="C32" s="131"/>
       <c r="D32" s="135"/>
@@ -5096,12 +5104,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5249,15 +5254,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5281,17 +5297,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>